--- a/ips-pilgrimage/ValueSet-OperatingSystem.xlsx
+++ b/ips-pilgrimage/ValueSet-OperatingSystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.2</t>
+    <t>2.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T16:11:24+00:00</t>
+    <t>2025-05-27T11:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
